--- a/medicine/Pharmacie/Classe_ATC_M04/Classe_ATC_M04.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_M04/Classe_ATC_M04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC M04, dénommée « Médicaments contre la goutte », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM04[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC M04, dénommée « Médicaments contre la goutte », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QM04. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique M de la classification, intitulé « Système musculo-squelettique ».
 </t>
         </is>
       </c>
@@ -513,22 +525,129 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>M04AA Inhibiteurs de la synthèse de l'acide urique
-M04AA01 Allopurinol
+          <t>M04AA Inhibiteurs de la synthèse de l'acide urique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>M04AA01 Allopurinol
 M04AA02 Tisopurine
 M04AA03 Fébuxostat
-M04AA51 Allopurinol, associations
-M04AB Uricosuriques
-M04AB01 Probénécide
+M04AA51 Allopurinol, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M04A Médicaments contre la goutte</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>M04AB Uricosuriques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>M04AB01 Probénécide
 M04AB02 Sulfinpyrazone
 M04AB03 Benzbromarone
 M04AB04 Isobromindione
-M04AB05 Lésinurad
-M04AC Médicaments sans effet sur le métabolisme de l'acide urique
-M04AC01 Colchicine
-M04AC02 Cinchofène
-M04AX Autres antigoutteux
-M04AX01 Oxydase d'urate
+M04AB05 Lésinurad</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>M04A Médicaments contre la goutte</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>M04AC Médicaments sans effet sur le métabolisme de l'acide urique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>M04AC01 Colchicine
+M04AC02 Cinchofène</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_M04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_M04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M04A Médicaments contre la goutte</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>M04AX Autres antigoutteux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>M04AX01 Oxydase d'urate
 M04AX02 Pégloticase</t>
         </is>
       </c>
